--- a/data/trans_orig/P33B_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R1-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>28422</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19952</v>
+        <v>19753</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39180</v>
+        <v>39724</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08914022541349842</v>
+        <v>0.08914022541349843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06257505701981128</v>
+        <v>0.06195326078774202</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1228821215075828</v>
+        <v>0.124587420260581</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -762,19 +762,19 @@
         <v>45232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36336</v>
+        <v>36381</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54490</v>
+        <v>54736</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1431106783756944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1149646955348069</v>
+        <v>0.1151080582440825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1724025431260664</v>
+        <v>0.1731829937763368</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -783,19 +783,19 @@
         <v>73654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61787</v>
+        <v>61355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86428</v>
+        <v>88036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1160070972101194</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09731618858800795</v>
+        <v>0.09663703401822675</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1361278457170653</v>
+        <v>0.1386602137684519</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>290423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279665</v>
+        <v>279121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>298893</v>
+        <v>299092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9108597745865016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8771178784924171</v>
+        <v>0.875412579739419</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9374249429801889</v>
+        <v>0.9380467392122579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>448</v>
@@ -833,19 +833,19 @@
         <v>270829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261571</v>
+        <v>261325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279725</v>
+        <v>279680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8568893216243056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8275974568739335</v>
+        <v>0.8268170062236631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8850353044651932</v>
+        <v>0.8848919417559175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>747</v>
@@ -854,19 +854,19 @@
         <v>561252</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>548478</v>
+        <v>546870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573119</v>
+        <v>573551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8839929027898806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8638721542829347</v>
+        <v>0.8613397862315482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9026838114119921</v>
+        <v>0.9033629659817733</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>40442</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27860</v>
+        <v>28147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58057</v>
+        <v>58257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07621189471427368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05250154099683037</v>
+        <v>0.05304363587085295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1094086802378591</v>
+        <v>0.1097852875974582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -979,19 +979,19 @@
         <v>58834</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47457</v>
+        <v>46742</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71746</v>
+        <v>71841</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1076580844739406</v>
+        <v>0.1076580844739405</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08683925416703847</v>
+        <v>0.08553102315470648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1312847272584965</v>
+        <v>0.1314575224101549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -1000,19 +1000,19 @@
         <v>99276</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>80671</v>
+        <v>81236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120134</v>
+        <v>120512</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09216631413747607</v>
+        <v>0.09216631413747609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07489377295180832</v>
+        <v>0.07541849331329276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1115304114316083</v>
+        <v>0.1118817280535013</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>490205</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>472590</v>
+        <v>472390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502787</v>
+        <v>502500</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9237881052857263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8905913197621407</v>
+        <v>0.8902147124025418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9474984590031696</v>
+        <v>0.9469563641291473</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>631</v>
@@ -1050,19 +1050,19 @@
         <v>487660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474748</v>
+        <v>474653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499037</v>
+        <v>499752</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8923419155260593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8687152727415034</v>
+        <v>0.8685424775898452</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9131607458329616</v>
+        <v>0.9144689768452934</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>983</v>
@@ -1071,19 +1071,19 @@
         <v>977865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>957007</v>
+        <v>956629</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>996470</v>
+        <v>995905</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9078336858625239</v>
+        <v>0.907833685862524</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8884695885683911</v>
+        <v>0.8881182719464987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9251062270481911</v>
+        <v>0.9245815066867072</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>43915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34079</v>
+        <v>33613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57777</v>
+        <v>57474</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1389753569859977</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1078470516105881</v>
+        <v>0.1063714677676011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1828414195265212</v>
+        <v>0.1818837552105956</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -1196,19 +1196,19 @@
         <v>77381</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65557</v>
+        <v>65015</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91251</v>
+        <v>90377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2178058658003069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1845249923322896</v>
+        <v>0.1830006788156931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2568458206955778</v>
+        <v>0.2543873454839595</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -1217,19 +1217,19 @@
         <v>121296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105058</v>
+        <v>104516</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138013</v>
+        <v>136995</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1806970607267565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1565064062660945</v>
+        <v>0.155700245564686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2056014715536782</v>
+        <v>0.2040845289372467</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>272078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258216</v>
+        <v>258519</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281914</v>
+        <v>282380</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8610246430140023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8171585804734788</v>
+        <v>0.8181162447894044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8921529483894118</v>
+        <v>0.8936285322323989</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1267,19 +1267,19 @@
         <v>277893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264023</v>
+        <v>264897</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289717</v>
+        <v>290259</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7821941341996931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7431541793044223</v>
+        <v>0.7456126545160405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8154750076677104</v>
+        <v>0.8169993211843067</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>715</v>
@@ -1288,19 +1288,19 @@
         <v>549971</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>533254</v>
+        <v>534272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>566209</v>
+        <v>566751</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8193029392732434</v>
+        <v>0.8193029392732435</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7943985284463217</v>
+        <v>0.7959154710627534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8434935937339054</v>
+        <v>0.844299754435314</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>49646</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35261</v>
+        <v>36038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65599</v>
+        <v>67189</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.133047211340948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09449555630291585</v>
+        <v>0.09658025711175047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1758005519170459</v>
+        <v>0.1800623086539409</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -1413,19 +1413,19 @@
         <v>95081</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80237</v>
+        <v>79769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112638</v>
+        <v>111507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2253313758782924</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1901526974795302</v>
+        <v>0.1890432816115637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2669392082370938</v>
+        <v>0.2642584901970835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -1434,19 +1434,19 @@
         <v>144727</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124838</v>
+        <v>123703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169763</v>
+        <v>168313</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1820222221174117</v>
+        <v>0.1820222221174116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1570076802335108</v>
+        <v>0.1555806067124623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2135090546680671</v>
+        <v>0.2116863851331836</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>323499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>307546</v>
+        <v>305956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337884</v>
+        <v>337107</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8669527886590519</v>
+        <v>0.866952788659052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8241994480829539</v>
+        <v>0.8199376913460593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9055044436970842</v>
+        <v>0.9034197428882496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>450</v>
@@ -1484,19 +1484,19 @@
         <v>326880</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>309323</v>
+        <v>310454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>341724</v>
+        <v>342192</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7746686241217078</v>
+        <v>0.7746686241217079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7330607917629071</v>
+        <v>0.7357415098029165</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8098473025204699</v>
+        <v>0.8109567183884362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>697</v>
@@ -1505,19 +1505,19 @@
         <v>650380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>625344</v>
+        <v>626794</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>670269</v>
+        <v>671404</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8179777778825883</v>
+        <v>0.8179777778825882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7864909453319326</v>
+        <v>0.7883136148668164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8429923197664891</v>
+        <v>0.8444193932875375</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>14545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9548</v>
+        <v>9482</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21591</v>
+        <v>21313</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07072093823226666</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04642482413795748</v>
+        <v>0.04610361611103313</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1049805884261888</v>
+        <v>0.103631283379507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1630,19 +1630,19 @@
         <v>25031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18889</v>
+        <v>19857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31407</v>
+        <v>32008</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1103550461873227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08327831284199889</v>
+        <v>0.08754452627733304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1384669080022917</v>
+        <v>0.1411135491287137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -1651,19 +1651,19 @@
         <v>39576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31924</v>
+        <v>31578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48385</v>
+        <v>48703</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09150750152098219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07381409587083082</v>
+        <v>0.07301512696489598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1118751762369216</v>
+        <v>0.1126121342286164</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>191120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184074</v>
+        <v>184352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196117</v>
+        <v>196183</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9292790617677333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8950194115738124</v>
+        <v>0.896368716620493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9535751758620427</v>
+        <v>0.9538963838889671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -1701,19 +1701,19 @@
         <v>201792</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195416</v>
+        <v>194815</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207934</v>
+        <v>206966</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8896449538126774</v>
+        <v>0.8896449538126773</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8615330919977082</v>
+        <v>0.8588864508712862</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9167216871580013</v>
+        <v>0.912455473722667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>686</v>
@@ -1722,19 +1722,19 @@
         <v>392912</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>384103</v>
+        <v>383785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400564</v>
+        <v>400910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9084924984790177</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8881248237630787</v>
+        <v>0.8873878657713837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9261859041291692</v>
+        <v>0.9269848730351039</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>30084</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21319</v>
+        <v>21717</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38544</v>
+        <v>40057</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1111328036532465</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07875448789707029</v>
+        <v>0.08022160714101306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1423816355303465</v>
+        <v>0.147973197144193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -1847,19 +1847,19 @@
         <v>62891</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53538</v>
+        <v>53583</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74200</v>
+        <v>73165</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.238449416905748</v>
+        <v>0.2384494169057479</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2029865281615061</v>
+        <v>0.2031572689254081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2813273801435162</v>
+        <v>0.2774025273653762</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>178</v>
@@ -1868,19 +1868,19 @@
         <v>92975</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79926</v>
+        <v>79248</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105913</v>
+        <v>107300</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1739625109494437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1495465192082366</v>
+        <v>0.1482769244987429</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1981687401899109</v>
+        <v>0.2007648679056479</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>240623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232163</v>
+        <v>230650</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249388</v>
+        <v>248990</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8888671963467536</v>
+        <v>0.8888671963467535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8576183644696538</v>
+        <v>0.852026802855807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9212455121029297</v>
+        <v>0.919778392858987</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>330</v>
@@ -1918,19 +1918,19 @@
         <v>200859</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189550</v>
+        <v>190585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210212</v>
+        <v>210167</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7615505830942522</v>
+        <v>0.7615505830942519</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7186726198564841</v>
+        <v>0.7225974726346239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7970134718384941</v>
+        <v>0.7968427310745919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>653</v>
@@ -1939,19 +1939,19 @@
         <v>441482</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>428544</v>
+        <v>427157</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>454531</v>
+        <v>455209</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8260374890505563</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8018312598100891</v>
+        <v>0.799235132094352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8504534807917635</v>
+        <v>0.8517230755012571</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>87726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69272</v>
+        <v>69161</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>109291</v>
+        <v>112589</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1220781581700889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09639744538896566</v>
+        <v>0.09624274586883608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1520882320941765</v>
+        <v>0.1566766743957433</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>218</v>
@@ -2064,19 +2064,19 @@
         <v>173594</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152845</v>
+        <v>152777</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197647</v>
+        <v>194789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.224846367371352</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1979707809067028</v>
+        <v>0.1978827285450978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2560002229925002</v>
+        <v>0.2522986622565314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>295</v>
@@ -2085,19 +2085,19 @@
         <v>261320</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231889</v>
+        <v>231557</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>295126</v>
+        <v>290684</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1753047725832216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1555608933970646</v>
+        <v>0.15533810220652</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1979828707510302</v>
+        <v>0.1950032370916247</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>630879</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>609314</v>
+        <v>606016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>649333</v>
+        <v>649444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8779218418299113</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8479117679058236</v>
+        <v>0.8433233256042562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9036025546110346</v>
+        <v>0.9037572541311637</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>742</v>
@@ -2135,19 +2135,19 @@
         <v>598463</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>574410</v>
+        <v>577268</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>619212</v>
+        <v>619280</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7751536326286479</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7439997770075005</v>
+        <v>0.7477013377434691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8020292190932976</v>
+        <v>0.8021172714549022</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1263</v>
@@ -2156,19 +2156,19 @@
         <v>1229342</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1195536</v>
+        <v>1199978</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1258773</v>
+        <v>1259105</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8246952274167784</v>
+        <v>0.8246952274167785</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8020171292489696</v>
+        <v>0.8049967629083754</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8444391066029353</v>
+        <v>0.8446618977934799</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>154567</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132723</v>
+        <v>134422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>177385</v>
+        <v>175796</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1936756462256233</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1663039934805025</v>
+        <v>0.1684334237275333</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2222665865937231</v>
+        <v>0.2202753379292601</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>381</v>
@@ -2281,19 +2281,19 @@
         <v>255948</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>235598</v>
+        <v>235575</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>279184</v>
+        <v>281105</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3081452769128036</v>
+        <v>0.3081452769128037</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2836451812100304</v>
+        <v>0.2836168363698698</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3361200820708685</v>
+        <v>0.3384323873464467</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>570</v>
@@ -2302,19 +2302,19 @@
         <v>410515</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>381481</v>
+        <v>378153</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>444364</v>
+        <v>443015</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2520538651575953</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2342269131740542</v>
+        <v>0.2321833991016653</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2728364466982827</v>
+        <v>0.2720087010765395</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>643505</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>620687</v>
+        <v>622276</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>665349</v>
+        <v>663650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8063243537743766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7777334134062772</v>
+        <v>0.77972466207074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8336960065194977</v>
+        <v>0.8315665762724668</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>680</v>
@@ -2352,19 +2352,19 @@
         <v>574661</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>551425</v>
+        <v>549504</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>595011</v>
+        <v>595034</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6918547230871963</v>
+        <v>0.6918547230871964</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6638799179291309</v>
+        <v>0.6615676126535533</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7163548187899693</v>
+        <v>0.7163831636301303</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1253</v>
@@ -2373,19 +2373,19 @@
         <v>1218166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1184317</v>
+        <v>1185666</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1247200</v>
+        <v>1250528</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7479461348424046</v>
+        <v>0.7479461348424048</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7271635533017172</v>
+        <v>0.7279912989234604</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7657730868259457</v>
+        <v>0.7678166008983347</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>449347</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>404729</v>
+        <v>410440</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>487484</v>
+        <v>491703</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1272332505721102</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1145995139731708</v>
+        <v>0.1162167825496997</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1380317157736684</v>
+        <v>0.1392263705657714</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1240</v>
@@ -2498,19 +2498,19 @@
         <v>793993</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>750636</v>
+        <v>753434</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>839314</v>
+        <v>837902</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2126938985933597</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2010795273596645</v>
+        <v>0.2018290135193979</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2248343909966031</v>
+        <v>0.2244563118292672</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1738</v>
@@ -2519,19 +2519,19 @@
         <v>1243340</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1186748</v>
+        <v>1184442</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1300950</v>
+        <v>1305750</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1711478928820818</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1633578662870034</v>
+        <v>0.1630404466656531</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1790780461591763</v>
+        <v>0.1797387385654656</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3082333</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3044196</v>
+        <v>3039977</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3126951</v>
+        <v>3121240</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8727667494278898</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8619682842263318</v>
+        <v>0.8607736294342291</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8854004860268291</v>
+        <v>0.8837832174503005</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4120</v>
@@ -2569,19 +2569,19 @@
         <v>2939037</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2893716</v>
+        <v>2895128</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2982394</v>
+        <v>2979596</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7873061014066403</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7751656090033968</v>
+        <v>0.7755436881707322</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7989204726403355</v>
+        <v>0.798170986480602</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6997</v>
@@ -2590,19 +2590,19 @@
         <v>6021370</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5963760</v>
+        <v>5958960</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6077962</v>
+        <v>6080268</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8288521071179181</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8209219538408237</v>
+        <v>0.8202612614345344</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8366421337129967</v>
+        <v>0.836959553334347</v>
       </c>
     </row>
     <row r="30">
